--- a/datastatic/datasets/online/SDG5_Share_of_Women_in_national_parl_WB_2014.xlsx
+++ b/datastatic/datasets/online/SDG5_Share_of_Women_in_national_parl_WB_2014.xlsx
@@ -1026,7 +1026,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 

--- a/datastatic/datasets/online/SDG5_Share_of_Women_in_national_parl_WB_2014.xlsx
+++ b/datastatic/datasets/online/SDG5_Share_of_Women_in_national_parl_WB_2014.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="293">
   <si>
     <t>original_title</t>
   </si>
@@ -170,9 +170,6 @@
   </si>
   <si>
     <t>source$maintainer</t>
-  </si>
-  <si>
-    <t>OKF</t>
   </si>
   <si>
     <t>source$license</t>
@@ -1291,20 +1288,20 @@
         <v>52</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37">
@@ -1333,7 +1330,7 @@
     </row>
     <row r="38">
       <c r="A38" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B38" s="12">
         <v>39.3</v>
@@ -1359,7 +1356,7 @@
     </row>
     <row r="39">
       <c r="A39" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B39" s="12">
         <v>27.7</v>
@@ -1385,7 +1382,7 @@
     </row>
     <row r="40">
       <c r="A40" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B40" s="12">
         <v>36.8</v>
@@ -1411,7 +1408,7 @@
     </row>
     <row r="41">
       <c r="A41" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B41" s="12">
         <v>20.7</v>
@@ -1437,7 +1434,7 @@
     </row>
     <row r="42">
       <c r="A42" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B42" s="12">
         <v>18.24961063</v>
@@ -1463,7 +1460,7 @@
     </row>
     <row r="43">
       <c r="A43" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B43" s="12">
         <v>22.5</v>
@@ -1489,7 +1486,7 @@
     </row>
     <row r="44">
       <c r="A44" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B44" s="12">
         <v>35.8</v>
@@ -1511,7 +1508,7 @@
     </row>
     <row r="45">
       <c r="A45" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B45" s="12">
         <v>10.7</v>
@@ -1537,7 +1534,7 @@
     </row>
     <row r="46">
       <c r="A46" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B46" s="12">
         <v>11.1</v>
@@ -1563,7 +1560,7 @@
     </row>
     <row r="47">
       <c r="A47" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B47" s="12">
         <v>26.7</v>
@@ -1589,7 +1586,7 @@
     </row>
     <row r="48">
       <c r="A48" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B48" s="12">
         <v>30.6</v>
@@ -1615,7 +1612,7 @@
     </row>
     <row r="49">
       <c r="A49" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B49" s="12">
         <v>16.9</v>
@@ -1641,7 +1638,7 @@
     </row>
     <row r="50">
       <c r="A50" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B50" s="12">
         <v>36.4</v>
@@ -1667,7 +1664,7 @@
     </row>
     <row r="51">
       <c r="A51" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B51" s="12">
         <v>39.3</v>
@@ -1693,7 +1690,7 @@
     </row>
     <row r="52">
       <c r="A52" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B52" s="12">
         <v>7.2</v>
@@ -1719,7 +1716,7 @@
     </row>
     <row r="53">
       <c r="A53" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B53" s="12">
         <v>9.4</v>
@@ -1745,7 +1742,7 @@
     </row>
     <row r="54">
       <c r="A54" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B54" s="12">
         <v>20.0</v>
@@ -1771,7 +1768,7 @@
     </row>
     <row r="55">
       <c r="A55" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B55" s="12">
         <v>20.4</v>
@@ -1797,7 +1794,7 @@
     </row>
     <row r="56">
       <c r="A56" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B56" s="12">
         <v>7.5</v>
@@ -1823,7 +1820,7 @@
     </row>
     <row r="57">
       <c r="A57" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B57" s="12">
         <v>13.2</v>
@@ -1849,7 +1846,7 @@
     </row>
     <row r="58">
       <c r="A58" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B58" s="12">
         <v>21.4</v>
@@ -1875,7 +1872,7 @@
     </row>
     <row r="59">
       <c r="A59" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B59" s="12">
         <v>27.3</v>
@@ -1901,7 +1898,7 @@
     </row>
     <row r="60">
       <c r="A60" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B60" s="12">
         <v>3.1</v>
@@ -1927,7 +1924,7 @@
     </row>
     <row r="61">
       <c r="A61" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B61" s="12">
         <v>53.1</v>
@@ -1953,7 +1950,7 @@
     </row>
     <row r="62">
       <c r="A62" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B62" s="12">
         <v>9.9</v>
@@ -1979,7 +1976,7 @@
     </row>
     <row r="63">
       <c r="A63" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B63" s="12">
         <v>16.7</v>
@@ -2005,7 +2002,7 @@
     </row>
     <row r="64">
       <c r="A64" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B64" s="12">
         <v>8.5</v>
@@ -2031,7 +2028,7 @@
     </row>
     <row r="65">
       <c r="A65" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B65" s="12">
         <v>9.5</v>
@@ -2057,7 +2054,7 @@
     </row>
     <row r="66">
       <c r="A66" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B66" s="12">
         <v>26.0</v>
@@ -2083,7 +2080,7 @@
     </row>
     <row r="67">
       <c r="A67" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B67" s="12">
         <v>20.11644265</v>
@@ -2109,7 +2106,7 @@
     </row>
     <row r="68">
       <c r="A68" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B68" s="12">
         <v>32.0</v>
@@ -2135,7 +2132,7 @@
     </row>
     <row r="69">
       <c r="A69" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B69" s="12">
         <v>15.8</v>
@@ -2161,7 +2158,7 @@
     </row>
     <row r="70">
       <c r="A70" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B70" s="12">
         <v>23.6</v>
@@ -2187,7 +2184,7 @@
     </row>
     <row r="71">
       <c r="A71" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B71" s="12">
         <v>9.2</v>
@@ -2213,7 +2210,7 @@
     </row>
     <row r="72">
       <c r="A72" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B72" s="12">
         <v>31.1</v>
@@ -2239,7 +2236,7 @@
     </row>
     <row r="73">
       <c r="A73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B73" s="12">
         <v>7.4</v>
@@ -2265,7 +2262,7 @@
     </row>
     <row r="74">
       <c r="A74" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B74" s="12">
         <v>19.9</v>
@@ -2291,7 +2288,7 @@
     </row>
     <row r="75">
       <c r="A75" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B75" s="12">
         <v>3.0</v>
@@ -2317,7 +2314,7 @@
     </row>
     <row r="76">
       <c r="A76" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B76" s="12">
         <v>20.8</v>
@@ -2343,7 +2340,7 @@
     </row>
     <row r="77">
       <c r="A77" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B77" s="12">
         <v>33.3</v>
@@ -2369,7 +2366,7 @@
     </row>
     <row r="78">
       <c r="A78" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B78" s="12">
         <v>19.73363229</v>
@@ -2395,7 +2392,7 @@
     </row>
     <row r="79">
       <c r="A79" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B79" s="12">
         <v>48.9</v>
@@ -2421,7 +2418,7 @@
     </row>
     <row r="80">
       <c r="A80" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B80" s="12">
         <v>12.5</v>
@@ -2447,7 +2444,7 @@
     </row>
     <row r="81">
       <c r="A81" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B81" s="12">
         <v>20.0</v>
@@ -2473,7 +2470,7 @@
     </row>
     <row r="82">
       <c r="A82" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B82" s="12">
         <v>36.5</v>
@@ -2499,7 +2496,7 @@
     </row>
     <row r="83">
       <c r="A83" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B83" s="12">
         <v>12.7</v>
@@ -2525,7 +2522,7 @@
     </row>
     <row r="84">
       <c r="A84" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B84" s="12">
         <v>21.9</v>
@@ -2551,7 +2548,7 @@
     </row>
     <row r="85">
       <c r="A85" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B85" s="12">
         <v>37.4</v>
@@ -2577,7 +2574,7 @@
     </row>
     <row r="86">
       <c r="A86" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B86" s="12">
         <v>20.8</v>
@@ -2603,7 +2600,7 @@
     </row>
     <row r="87">
       <c r="A87" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B87" s="12">
         <v>31.6</v>
@@ -2629,7 +2626,7 @@
     </row>
     <row r="88">
       <c r="A88" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B88" s="12">
         <v>19.39205852</v>
@@ -2655,7 +2652,7 @@
     </row>
     <row r="89">
       <c r="A89" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B89" s="12">
         <v>21.82782646</v>
@@ -2681,7 +2678,7 @@
     </row>
     <row r="90">
       <c r="A90" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B90" s="12">
         <v>19.00917887</v>
@@ -2707,7 +2704,7 @@
     </row>
     <row r="91">
       <c r="A91" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B91" s="12">
         <v>18.02155195</v>
@@ -2733,7 +2730,7 @@
     </row>
     <row r="92">
       <c r="A92" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B92" s="12">
         <v>25.7173578</v>
@@ -2759,7 +2756,7 @@
     </row>
     <row r="93">
       <c r="A93" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B93" s="12">
         <v>41.6</v>
@@ -2785,7 +2782,7 @@
     </row>
     <row r="94">
       <c r="A94" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B94" s="12">
         <v>14.9</v>
@@ -2805,7 +2802,7 @@
     </row>
     <row r="95">
       <c r="A95" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B95" s="12">
         <v>30.12703576</v>
@@ -2831,7 +2828,7 @@
     </row>
     <row r="96">
       <c r="A96" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B96" s="12">
         <v>22.0</v>
@@ -2857,7 +2854,7 @@
     </row>
     <row r="97">
       <c r="A97" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B97" s="12">
         <v>40.0</v>
@@ -2883,7 +2880,7 @@
     </row>
     <row r="98">
       <c r="A98" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B98" s="12">
         <v>23.8</v>
@@ -2909,7 +2906,7 @@
     </row>
     <row r="99">
       <c r="A99" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B99" s="12">
         <v>38.8</v>
@@ -2935,7 +2932,7 @@
     </row>
     <row r="100">
       <c r="A100" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B100" s="12">
         <v>28.32757225</v>
@@ -2961,7 +2958,7 @@
     </row>
     <row r="101">
       <c r="A101" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B101" s="12">
         <v>16.11927083</v>
@@ -2987,7 +2984,7 @@
     </row>
     <row r="102">
       <c r="A102" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B102" s="12">
         <v>41.5</v>
@@ -3013,7 +3010,7 @@
     </row>
     <row r="103">
       <c r="A103" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B103" s="12">
         <v>16.0</v>
@@ -3031,7 +3028,7 @@
     </row>
     <row r="104">
       <c r="A104" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B104" s="12">
         <v>26.2</v>
@@ -3057,7 +3054,7 @@
     </row>
     <row r="105">
       <c r="A105" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B105" s="12">
         <v>0.0</v>
@@ -3083,7 +3080,7 @@
     </row>
     <row r="106">
       <c r="A106" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B106" s="12">
         <v>14.2</v>
@@ -3109,7 +3106,7 @@
     </row>
     <row r="107">
       <c r="A107" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B107" s="12">
         <v>29.4</v>
@@ -3135,7 +3132,7 @@
     </row>
     <row r="108">
       <c r="A108" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B108" s="12">
         <v>11.3</v>
@@ -3161,7 +3158,7 @@
     </row>
     <row r="109">
       <c r="A109" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B109" s="12">
         <v>10.9</v>
@@ -3185,7 +3182,7 @@
     </row>
     <row r="110">
       <c r="A110" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B110" s="12">
         <v>21.9</v>
@@ -3203,7 +3200,7 @@
     </row>
     <row r="111">
       <c r="A111" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B111" s="12">
         <v>9.4</v>
@@ -3229,7 +3226,7 @@
     </row>
     <row r="112">
       <c r="A112" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B112" s="12">
         <v>13.7</v>
@@ -3255,7 +3252,7 @@
     </row>
     <row r="113">
       <c r="A113" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B113" s="12">
         <v>24.0</v>
@@ -3281,7 +3278,7 @@
     </row>
     <row r="114">
       <c r="A114" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B114" s="12">
         <v>19.7</v>
@@ -3307,7 +3304,7 @@
     </row>
     <row r="115">
       <c r="A115" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B115" s="12">
         <v>33.3</v>
@@ -3333,7 +3330,7 @@
     </row>
     <row r="116">
       <c r="A116" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B116" s="12">
         <v>13.9</v>
@@ -3359,7 +3356,7 @@
     </row>
     <row r="117">
       <c r="A117" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B117" s="12">
         <v>30.4</v>
@@ -3385,7 +3382,7 @@
     </row>
     <row r="118">
       <c r="A118" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B118" s="12">
         <v>26.44965323</v>
@@ -3411,7 +3408,7 @@
     </row>
     <row r="119">
       <c r="A119" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B119" s="12">
         <v>25.8</v>
@@ -3437,7 +3434,7 @@
     </row>
     <row r="120">
       <c r="A120" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B120" s="12">
         <v>23.87692308</v>
@@ -3463,7 +3460,7 @@
     </row>
     <row r="121">
       <c r="A121" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B121" s="12">
         <v>15.2</v>
@@ -3489,7 +3486,7 @@
     </row>
     <row r="122">
       <c r="A122" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B122" s="12">
         <v>0.0</v>
@@ -3515,7 +3512,7 @@
     </row>
     <row r="123">
       <c r="A123" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B123" s="12">
         <v>10.1</v>
@@ -3541,7 +3538,7 @@
     </row>
     <row r="124">
       <c r="A124" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B124" s="12">
         <v>20.99341654</v>
@@ -3567,7 +3564,7 @@
     </row>
     <row r="125">
       <c r="A125" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B125" s="12">
         <v>21.03800308</v>
@@ -3593,7 +3590,7 @@
     </row>
     <row r="126">
       <c r="A126" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B126" s="12">
         <v>21.09493984</v>
@@ -3619,7 +3616,7 @@
     </row>
     <row r="127">
       <c r="A127" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B127" s="12">
         <v>20.07219843</v>
@@ -3645,7 +3642,7 @@
     </row>
     <row r="128">
       <c r="A128" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B128" s="12">
         <v>17.1</v>
@@ -3671,7 +3668,7 @@
     </row>
     <row r="129">
       <c r="A129" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B129" s="12">
         <v>21.38895045</v>
@@ -3697,7 +3694,7 @@
     </row>
     <row r="130">
       <c r="A130" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B130" s="12">
         <v>12.0</v>
@@ -3723,7 +3720,7 @@
     </row>
     <row r="131">
       <c r="A131" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B131" s="12">
         <v>16.3</v>
@@ -3749,7 +3746,7 @@
     </row>
     <row r="132">
       <c r="A132" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B132" s="12">
         <v>3.1</v>
@@ -3775,7 +3772,7 @@
     </row>
     <row r="133">
       <c r="A133" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B133" s="12">
         <v>26.5</v>
@@ -3801,7 +3798,7 @@
     </row>
     <row r="134">
       <c r="A134" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B134" s="12">
         <v>41.3</v>
@@ -3827,7 +3824,7 @@
     </row>
     <row r="135">
       <c r="A135" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B135" s="12">
         <v>26.7</v>
@@ -3853,7 +3850,7 @@
     </row>
     <row r="136">
       <c r="A136" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B136" s="12">
         <v>31.0</v>
@@ -3879,7 +3876,7 @@
     </row>
     <row r="137">
       <c r="A137" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B137" s="12">
         <v>12.7</v>
@@ -3905,7 +3902,7 @@
     </row>
     <row r="138">
       <c r="A138" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B138" s="12">
         <v>12.0</v>
@@ -3931,7 +3928,7 @@
     </row>
     <row r="139">
       <c r="A139" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B139" s="12">
         <v>9.5</v>
@@ -3957,7 +3954,7 @@
     </row>
     <row r="140">
       <c r="A140" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B140" s="12">
         <v>26.2</v>
@@ -3983,7 +3980,7 @@
     </row>
     <row r="141">
       <c r="A141" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B141" s="12">
         <v>19.7</v>
@@ -4009,7 +4006,7 @@
     </row>
     <row r="142">
       <c r="A142" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B142" s="12">
         <v>19.2</v>
@@ -4035,7 +4032,7 @@
     </row>
     <row r="143">
       <c r="A143" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B143" s="12">
         <v>20.3</v>
@@ -4061,7 +4058,7 @@
     </row>
     <row r="144">
       <c r="A144" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B144" s="12">
         <v>6.5</v>
@@ -4087,7 +4084,7 @@
     </row>
     <row r="145">
       <c r="A145" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B145" s="12">
         <v>13.3</v>
@@ -4113,7 +4110,7 @@
     </row>
     <row r="146">
       <c r="A146" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B146" s="12">
         <v>16.3</v>
@@ -4139,7 +4136,7 @@
     </row>
     <row r="147">
       <c r="A147" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B147" s="12">
         <v>1.5</v>
@@ -4165,7 +4162,7 @@
     </row>
     <row r="148">
       <c r="A148" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B148" s="12">
         <v>29.24479005</v>
@@ -4191,7 +4188,7 @@
     </row>
     <row r="149">
       <c r="A149" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B149" s="12">
         <v>25.0</v>
@@ -4217,7 +4214,7 @@
     </row>
     <row r="150">
       <c r="A150" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B150" s="12">
         <v>3.1</v>
@@ -4243,7 +4240,7 @@
     </row>
     <row r="151">
       <c r="A151" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B151" s="12">
         <v>11.0</v>
@@ -4269,7 +4266,7 @@
     </row>
     <row r="152">
       <c r="A152" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B152" s="12">
         <v>16.0</v>
@@ -4293,7 +4290,7 @@
     </row>
     <row r="153">
       <c r="A153" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B153" s="12">
         <v>16.7</v>
@@ -4319,7 +4316,7 @@
     </row>
     <row r="154">
       <c r="A154" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B154" s="12">
         <v>28.20618483</v>
@@ -4345,7 +4342,7 @@
     </row>
     <row r="155">
       <c r="A155" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B155" s="12">
         <v>22.79043955</v>
@@ -4371,7 +4368,7 @@
     </row>
     <row r="156">
       <c r="A156" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B156" s="12">
         <v>24.21567771</v>
@@ -4397,7 +4394,7 @@
     </row>
     <row r="157">
       <c r="A157" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B157" s="12">
         <v>20.0</v>
@@ -4423,7 +4420,7 @@
     </row>
     <row r="158">
       <c r="A158" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B158" s="12">
         <v>5.8</v>
@@ -4449,7 +4446,7 @@
     </row>
     <row r="159">
       <c r="A159" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B159" s="12">
         <v>17.13065322</v>
@@ -4475,7 +4472,7 @@
     </row>
     <row r="160">
       <c r="A160" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B160" s="12">
         <v>21.46357506</v>
@@ -4501,7 +4498,7 @@
     </row>
     <row r="161">
       <c r="A161" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B161" s="12">
         <v>25.0</v>
@@ -4527,7 +4524,7 @@
     </row>
     <row r="162">
       <c r="A162" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B162" s="12">
         <v>19.38124642</v>
@@ -4553,7 +4550,7 @@
     </row>
     <row r="163">
       <c r="A163" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B163" s="12">
         <v>23.4</v>
@@ -4579,7 +4576,7 @@
     </row>
     <row r="164">
       <c r="A164" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B164" s="12">
         <v>28.3</v>
@@ -4605,7 +4602,7 @@
     </row>
     <row r="165">
       <c r="A165" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B165" s="12">
         <v>18.0</v>
@@ -4631,7 +4628,7 @@
     </row>
     <row r="166">
       <c r="A166" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B166" s="12">
         <v>17.0</v>
@@ -4657,7 +4654,7 @@
     </row>
     <row r="167">
       <c r="A167" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B167" s="12">
         <v>20.8</v>
@@ -4683,7 +4680,7 @@
     </row>
     <row r="168">
       <c r="A168" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B168" s="12">
         <v>21.8</v>
@@ -4709,7 +4706,7 @@
     </row>
     <row r="169">
       <c r="A169" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B169" s="12">
         <v>20.5</v>
@@ -4735,7 +4732,7 @@
     </row>
     <row r="170">
       <c r="A170" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B170" s="12">
         <v>5.9</v>
@@ -4761,7 +4758,7 @@
     </row>
     <row r="171">
       <c r="A171" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B171" s="12">
         <v>16.16453972</v>
@@ -4787,7 +4784,7 @@
     </row>
     <row r="172">
       <c r="A172" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B172" s="12">
         <v>42.4</v>
@@ -4813,7 +4810,7 @@
     </row>
     <row r="173">
       <c r="A173" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B173" s="12">
         <v>9.1</v>
@@ -4839,7 +4836,7 @@
     </row>
     <row r="174">
       <c r="A174" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B174" s="12">
         <v>20.64326884</v>
@@ -4865,7 +4862,7 @@
     </row>
     <row r="175">
       <c r="A175" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B175" s="12">
         <v>33.3</v>
@@ -4891,7 +4888,7 @@
     </row>
     <row r="176">
       <c r="A176" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B176" s="12">
         <v>8.8</v>
@@ -4917,7 +4914,7 @@
     </row>
     <row r="177">
       <c r="A177" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B177" s="12">
         <v>12.9</v>
@@ -4943,7 +4940,7 @@
     </row>
     <row r="178">
       <c r="A178" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B178" s="12">
         <v>9.9</v>
@@ -4969,7 +4966,7 @@
     </row>
     <row r="179">
       <c r="A179" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B179" s="12">
         <v>16.54688896</v>
@@ -4995,7 +4992,7 @@
     </row>
     <row r="180">
       <c r="A180" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B180" s="12">
         <v>17.3</v>
@@ -5021,7 +5018,7 @@
     </row>
     <row r="181">
       <c r="A181" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B181" s="12">
         <v>14.5</v>
@@ -5047,7 +5044,7 @@
     </row>
     <row r="182">
       <c r="A182" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B182" s="12">
         <v>39.6</v>
@@ -5071,7 +5068,7 @@
     </row>
     <row r="183">
       <c r="A183" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B183" s="12">
         <v>25.2</v>
@@ -5097,7 +5094,7 @@
     </row>
     <row r="184">
       <c r="A184" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B184" s="12">
         <v>11.6</v>
@@ -5123,7 +5120,7 @@
     </row>
     <row r="185">
       <c r="A185" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B185" s="12">
         <v>16.7</v>
@@ -5149,7 +5146,7 @@
     </row>
     <row r="186">
       <c r="A186" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B186" s="12">
         <v>10.4</v>
@@ -5175,7 +5172,7 @@
     </row>
     <row r="187">
       <c r="A187" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B187" s="12">
         <v>22.28963731</v>
@@ -5201,7 +5198,7 @@
     </row>
     <row r="188">
       <c r="A188" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B188" s="12">
         <v>41.3</v>
@@ -5225,7 +5222,7 @@
     </row>
     <row r="189">
       <c r="A189" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B189" s="12">
         <v>13.3</v>
@@ -5249,7 +5246,7 @@
     </row>
     <row r="190">
       <c r="A190" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B190" s="12">
         <v>5.6</v>
@@ -5275,7 +5272,7 @@
     </row>
     <row r="191">
       <c r="A191" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B191" s="12">
         <v>41.3</v>
@@ -5301,7 +5298,7 @@
     </row>
     <row r="192">
       <c r="A192" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B192" s="12">
         <v>37.3</v>
@@ -5327,7 +5324,7 @@
     </row>
     <row r="193">
       <c r="A193" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B193" s="12">
         <v>39.6</v>
@@ -5353,7 +5350,7 @@
     </row>
     <row r="194">
       <c r="A194" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B194" s="12">
         <v>29.5</v>
@@ -5379,7 +5376,7 @@
     </row>
     <row r="195">
       <c r="A195" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B195" s="12">
         <v>5.3</v>
@@ -5405,7 +5402,7 @@
     </row>
     <row r="196">
       <c r="A196" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B196" s="12">
         <v>31.4</v>
@@ -5431,7 +5428,7 @@
     </row>
     <row r="197">
       <c r="A197" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B197" s="12">
         <v>27.98611284</v>
@@ -5457,7 +5454,7 @@
     </row>
     <row r="198">
       <c r="A198" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B198" s="12">
         <v>1.2</v>
@@ -5483,7 +5480,7 @@
     </row>
     <row r="199">
       <c r="A199" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B199" s="12">
         <v>18.6196449</v>
@@ -5509,7 +5506,7 @@
     </row>
     <row r="200">
       <c r="A200" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B200" s="12">
         <v>20.6</v>
@@ -5535,7 +5532,7 @@
     </row>
     <row r="201">
       <c r="A201" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B201" s="12">
         <v>18.3</v>
@@ -5561,7 +5558,7 @@
     </row>
     <row r="202">
       <c r="A202" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B202" s="12">
         <v>22.3</v>
@@ -5587,7 +5584,7 @@
     </row>
     <row r="203">
       <c r="A203" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B203" s="12">
         <v>27.2</v>
@@ -5613,7 +5610,7 @@
     </row>
     <row r="204">
       <c r="A204" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B204" s="12">
         <v>0.0</v>
@@ -5639,7 +5636,7 @@
     </row>
     <row r="205">
       <c r="A205" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B205" s="12">
         <v>2.7</v>
@@ -5665,7 +5662,7 @@
     </row>
     <row r="206">
       <c r="A206" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B206" s="12">
         <v>27.4</v>
@@ -5691,7 +5688,7 @@
     </row>
     <row r="207">
       <c r="A207" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B207" s="12">
         <v>21.91786622</v>
@@ -5717,7 +5714,7 @@
     </row>
     <row r="208">
       <c r="A208" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B208" s="12">
         <v>16.3</v>
@@ -5743,7 +5740,7 @@
     </row>
     <row r="209">
       <c r="A209" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B209" s="12">
         <v>34.8</v>
@@ -5769,7 +5766,7 @@
     </row>
     <row r="210">
       <c r="A210" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B210" s="12">
         <v>15.0</v>
@@ -5795,7 +5792,7 @@
     </row>
     <row r="211">
       <c r="A211" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B211" s="12">
         <v>5.403783784</v>
@@ -5813,7 +5810,7 @@
     </row>
     <row r="212">
       <c r="A212" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B212" s="12">
         <v>28.52967211</v>
@@ -5839,7 +5836,7 @@
     </row>
     <row r="213">
       <c r="A213" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B213" s="12">
         <v>0.0</v>
@@ -5865,7 +5862,7 @@
     </row>
     <row r="214">
       <c r="A214" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B214" s="12">
         <v>13.7</v>
@@ -5891,7 +5888,7 @@
     </row>
     <row r="215">
       <c r="A215" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B215" s="12">
         <v>13.6</v>
@@ -5917,7 +5914,7 @@
     </row>
     <row r="216">
       <c r="A216" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B216" s="12">
         <v>63.8</v>
@@ -5943,7 +5940,7 @@
     </row>
     <row r="217">
       <c r="A217" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B217" s="12">
         <v>19.39860541</v>
@@ -5969,7 +5966,7 @@
     </row>
     <row r="218">
       <c r="A218" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B218" s="12">
         <v>19.9</v>
@@ -5995,7 +5992,7 @@
     </row>
     <row r="219">
       <c r="A219" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B219" s="12">
         <v>30.5</v>
@@ -6021,7 +6018,7 @@
     </row>
     <row r="220">
       <c r="A220" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B220" s="12">
         <v>42.7</v>
@@ -6047,7 +6044,7 @@
     </row>
     <row r="221">
       <c r="A221" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B221" s="12">
         <v>23.1</v>
@@ -6073,7 +6070,7 @@
     </row>
     <row r="222">
       <c r="A222" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B222" s="12">
         <v>2.0</v>
@@ -6099,7 +6096,7 @@
     </row>
     <row r="223">
       <c r="A223" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B223" s="12">
         <v>12.4</v>
@@ -6125,7 +6122,7 @@
     </row>
     <row r="224">
       <c r="A224" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B224" s="12">
         <v>32.1</v>
@@ -6151,7 +6148,7 @@
     </row>
     <row r="225">
       <c r="A225" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B225" s="12">
         <v>16.7</v>
@@ -6177,7 +6174,7 @@
     </row>
     <row r="226">
       <c r="A226" s="11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B226" s="12">
         <v>13.8</v>
@@ -6203,7 +6200,7 @@
     </row>
     <row r="227">
       <c r="A227" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B227" s="12">
         <v>34.0</v>
@@ -6229,7 +6226,7 @@
     </row>
     <row r="228">
       <c r="A228" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B228" s="12">
         <v>23.62367573</v>
@@ -6255,7 +6252,7 @@
     </row>
     <row r="229">
       <c r="A229" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B229" s="12">
         <v>26.5</v>
@@ -6279,7 +6276,7 @@
     </row>
     <row r="230">
       <c r="A230" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B230" s="12">
         <v>23.69775126</v>
@@ -6305,7 +6302,7 @@
     </row>
     <row r="231">
       <c r="A231" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B231" s="12">
         <v>16.90495706</v>
@@ -6331,7 +6328,7 @@
     </row>
     <row r="232">
       <c r="A232" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B232" s="12">
         <v>18.2</v>
@@ -6357,7 +6354,7 @@
     </row>
     <row r="233">
       <c r="A233" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B233" s="12">
         <v>25.5</v>
@@ -6383,7 +6380,7 @@
     </row>
     <row r="234">
       <c r="A234" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B234" s="12">
         <v>18.7</v>
@@ -6409,7 +6406,7 @@
     </row>
     <row r="235">
       <c r="A235" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B235" s="12">
         <v>36.7</v>
@@ -6435,7 +6432,7 @@
     </row>
     <row r="236">
       <c r="A236" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B236" s="12">
         <v>43.6</v>
@@ -6461,7 +6458,7 @@
     </row>
     <row r="237">
       <c r="A237" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B237" s="12">
         <v>6.2</v>
@@ -6487,7 +6484,7 @@
     </row>
     <row r="238">
       <c r="A238" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B238" s="12">
         <v>43.8</v>
@@ -6513,7 +6510,7 @@
     </row>
     <row r="239">
       <c r="A239" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B239" s="12">
         <v>12.4</v>
@@ -6539,7 +6536,7 @@
     </row>
     <row r="240">
       <c r="A240" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B240" s="12">
         <v>14.9</v>
@@ -6565,7 +6562,7 @@
     </row>
     <row r="241">
       <c r="A241" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B241" s="12">
         <v>19.69988393</v>
@@ -6591,7 +6588,7 @@
     </row>
     <row r="242">
       <c r="A242" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B242" s="12">
         <v>18.8874833</v>
@@ -6617,7 +6614,7 @@
     </row>
     <row r="243">
       <c r="A243" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B243" s="12">
         <v>17.6</v>
@@ -6643,7 +6640,7 @@
     </row>
     <row r="244">
       <c r="A244" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B244" s="12">
         <v>6.1</v>
@@ -6669,7 +6666,7 @@
     </row>
     <row r="245">
       <c r="A245" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B245" s="12">
         <v>19.0</v>
@@ -6695,7 +6692,7 @@
     </row>
     <row r="246">
       <c r="A246" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B246" s="12">
         <v>25.8</v>
@@ -6721,7 +6718,7 @@
     </row>
     <row r="247">
       <c r="A247" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B247" s="12">
         <v>24.88720339</v>
@@ -6747,7 +6744,7 @@
     </row>
     <row r="248">
       <c r="A248" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B248" s="12">
         <v>16.54688896</v>
@@ -6773,7 +6770,7 @@
     </row>
     <row r="249">
       <c r="A249" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B249" s="12">
         <v>38.5</v>
@@ -6799,7 +6796,7 @@
     </row>
     <row r="250">
       <c r="A250" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B250" s="12">
         <v>0.0</v>
@@ -6825,7 +6822,7 @@
     </row>
     <row r="251">
       <c r="A251" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B251" s="12">
         <v>19.39860541</v>
@@ -6851,7 +6848,7 @@
     </row>
     <row r="252">
       <c r="A252" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B252" s="12">
         <v>23.69775126</v>
@@ -6877,7 +6874,7 @@
     </row>
     <row r="253">
       <c r="A253" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B253" s="12">
         <v>31.0</v>
@@ -6903,7 +6900,7 @@
     </row>
     <row r="254">
       <c r="A254" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B254" s="12">
         <v>31.3</v>
@@ -6929,7 +6926,7 @@
     </row>
     <row r="255">
       <c r="A255" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B255" s="12">
         <v>14.9</v>
@@ -6955,7 +6952,7 @@
     </row>
     <row r="256">
       <c r="A256" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B256" s="12">
         <v>6.7</v>
@@ -6981,7 +6978,7 @@
     </row>
     <row r="257">
       <c r="A257" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B257" s="12">
         <v>36.6</v>
@@ -7005,7 +7002,7 @@
     </row>
     <row r="258">
       <c r="A258" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B258" s="12">
         <v>35.0</v>
@@ -7031,7 +7028,7 @@
     </row>
     <row r="259">
       <c r="A259" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B259" s="12">
         <v>12.1</v>
@@ -7057,7 +7054,7 @@
     </row>
     <row r="260">
       <c r="A260" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B260" s="12">
         <v>23.51064003</v>
@@ -7083,7 +7080,7 @@
     </row>
     <row r="261">
       <c r="A261" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B261" s="12">
         <v>16.2</v>
@@ -7109,7 +7106,7 @@
     </row>
     <row r="262">
       <c r="A262" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B262" s="12">
         <v>19.4</v>
@@ -7135,7 +7132,7 @@
     </row>
     <row r="263">
       <c r="A263" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B263" s="12">
         <v>16.0</v>
@@ -7161,7 +7158,7 @@
     </row>
     <row r="264">
       <c r="A264" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B264" s="12">
         <v>13.0</v>
@@ -7187,7 +7184,7 @@
     </row>
     <row r="265">
       <c r="A265" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B265" s="12">
         <v>14.4</v>
@@ -7213,7 +7210,7 @@
     </row>
     <row r="266">
       <c r="A266" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B266" s="12">
         <v>24.3</v>
@@ -7239,7 +7236,7 @@
     </row>
     <row r="267">
       <c r="A267" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B267" s="12">
         <v>0.0</v>
@@ -7265,7 +7262,7 @@
     </row>
     <row r="268">
       <c r="A268" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B268" s="12">
         <v>22.73992178</v>
@@ -7291,7 +7288,7 @@
     </row>
     <row r="269">
       <c r="A269" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B269" s="12">
         <v>6.1</v>
@@ -7317,7 +7314,7 @@
     </row>
     <row r="270">
       <c r="A270" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B270" s="12">
         <v>0.0</v>
@@ -7343,7 +7340,7 @@
     </row>
     <row r="271">
       <c r="A271" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B271" s="12">
         <v>42.0</v>
@@ -7369,7 +7366,7 @@
     </row>
     <row r="272">
       <c r="A272" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B272" s="12">
         <v>8.9</v>
@@ -7393,7 +7390,7 @@
     </row>
     <row r="273">
       <c r="A273" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B273" s="12">
         <v>12.7</v>
@@ -7419,7 +7416,7 @@
     </row>
     <row r="274">
       <c r="A274" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B274" s="12">
         <v>31.5</v>

--- a/datastatic/datasets/online/SDG5_Share_of_Women_in_national_parl_WB_2014.xlsx
+++ b/datastatic/datasets/online/SDG5_Share_of_Women_in_national_parl_WB_2014.xlsx
@@ -1023,7 +1023,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
